--- a/storage/templates/import_mahasiswa_true_template.xlsx
+++ b/storage/templates/import_mahasiswa_true_template.xlsx
@@ -1,59 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="mahasiswa_true" sheetId="1" r:id="rId4"/>
+    <sheet name="mahasiswa_true" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999" calcMode="auto" fullCalcOnLoad="0" calcCompleted="1" forceFullCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>nim</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>no_hp</t>
-  </si>
-  <si>
-    <t>prodi_name</t>
-  </si>
-  <si>
-    <t>fakultas</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
+      <name val="Calibri"/>
       <strike val="0"/>
-      <u val="none"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,13 +45,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,41 +408,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>nama</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>nim</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>prodi_name</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fakultas</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <printOptions gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup orientation="default" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
 </worksheet>
 </file>